--- a/experiment result/64_0.3_40_zs0_kappa_lp.xlsx
+++ b/experiment result/64_0.3_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07729219942127985</v>
+        <v>0.01468157082520747</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.103095024061276</v>
+        <v>0.01126831541482888</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09290566446541997</v>
+        <v>0.01114800841121508</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08810101423709457</v>
+        <v>0.01648406287677233</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07817637636433514</v>
+        <v>0.01372556350276198</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1020907043821407</v>
+        <v>0.05071856901431241</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1221068791079856</v>
+        <v>0.009443455824859507</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06777897895810706</v>
+        <v>0.02777897987459645</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08082742590988509</v>
+        <v>0.02086361870979061</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09695544360776118</v>
+        <v>0.03274709960029884</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1148916474388393</v>
+        <v>0.05765348111567673</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1740976394344738</v>
+        <v>0.07635776190410286</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.114178333567021</v>
+        <v>0.01909214574724707</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1270361111042386</v>
+        <v>0.03172301594332295</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1034198962345526</v>
+        <v>0.01919832165715221</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09573165906705698</v>
+        <v>0.02810417564751102</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09834673016555825</v>
+        <v>0.03491069390166014</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06446828506038683</v>
+        <v>0.00112120593313259</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08395417764790813</v>
+        <v>0.03221606798467263</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1233067766710132</v>
+        <v>0.04185534748073442</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07561397518919739</v>
+        <v>0.01713549923424908</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07791323776219074</v>
+        <v>0.01495108410391313</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105008346397328</v>
+        <v>0.02639036444336387</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04722161721417966</v>
+        <v>0.007626159178496185</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06057429361346385</v>
+        <v>0.008144899230405737</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1244180571310002</v>
+        <v>0.03519579719390974</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09516247808315478</v>
+        <v>0.01643710091767419</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08291662093239655</v>
+        <v>0.02689753781562715</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08762689465883927</v>
+        <v>0.03207664956004018</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1214416162593442</v>
+        <v>0.03041547776224631</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04074330979615232</v>
+        <v>0.003093202563431337</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.09514199458551484</v>
+        <v>0.004641876334585923</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1294888960901223</v>
+        <v>0.03213957221297532</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06041860432930631</v>
+        <v>0.008203758557771392</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07135507413244238</v>
+        <v>0.01671894169564607</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1281606285211105</v>
+        <v>0.04485748524154751</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06989792552011102</v>
+        <v>0.004516799295414702</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1333901938532824</v>
+        <v>0.0261432114077524</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05521598105865845</v>
+        <v>0.01707705106572211</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1052691481893293</v>
+        <v>0.06797204095071351</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1120222382094524</v>
+        <v>0.05641071236971975</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1017719546013488</v>
+        <v>0.02356102154861023</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07456939080524563</v>
+        <v>0.03960900485413915</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08304470468376475</v>
+        <v>0.01839256555181538</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06220305145241386</v>
+        <v>0.01953510757871634</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1348319252743073</v>
+        <v>0.03539970245343862</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.124417065438714</v>
+        <v>0.03234931607412213</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0657665046498493</v>
+        <v>0.007383083028459446</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1283336948462764</v>
+        <v>0.02036864436344552</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07143237581024897</v>
+        <v>0.007498235762582892</v>
       </c>
     </row>
   </sheetData>
